--- a/acs/key_rows.xlsx
+++ b/acs/key_rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CADED41-2E59-4A41-ACA8-CEA6EA6445F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD7190B-E454-4554-BC23-A792A93D2226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="3780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,18 +439,12 @@
     <t>san_francisco_city_council_2012.csv</t>
   </si>
   <si>
-    <t>san_francisco_tracts_2010.csv</t>
-  </si>
-  <si>
     <t>SanFrancisco_11022004_BoardofSupervisorsDistrict11.csv</t>
   </si>
   <si>
     <t>san_francisco_city_council_2002.csv</t>
   </si>
   <si>
-    <t>san_francisco_tracts_2000.csv</t>
-  </si>
-  <si>
     <t>SanFrancisco_11022004_BoardofSupervisorsDistrict2.csv</t>
   </si>
   <si>
@@ -484,9 +478,6 @@
     <t>SanFrancisco_11032020_BOARDOFSUPERVISORSDISTRICT1.csv</t>
   </si>
   <si>
-    <t>san_francisco_tracts_2020.csv</t>
-  </si>
-  <si>
     <t>SanFrancisco_11032020_BOARDOFSUPERVISORSDISTRICT11.csv</t>
   </si>
   <si>
@@ -622,9 +613,6 @@
     <t>SanLeandro_11022010_CountyCouncilDistrict1.csv</t>
   </si>
   <si>
-    <t>san_leandro_tracts_2010.csv</t>
-  </si>
-  <si>
     <t>SanLeandro_11022010_CountyCouncilDistrict5.csv</t>
   </si>
   <si>
@@ -667,10 +655,22 @@
     <t>san_leandro_city_council_2010.csv</t>
   </si>
   <si>
-    <t>san_leandro_tracts_2020.csv</t>
-  </si>
-  <si>
     <t>SanLeandro_11032020_MemberCityCouncilDist4SanLeandroRCV.csv</t>
+  </si>
+  <si>
+    <t>san francisco_tracts_2000.csv</t>
+  </si>
+  <si>
+    <t>san francisco_tracts_2010.csv</t>
+  </si>
+  <si>
+    <t>san francisco_tracts_2020.csv</t>
+  </si>
+  <si>
+    <t>san leandro_tracts_2010.csv</t>
+  </si>
+  <si>
+    <t>san leandro_tracts_2020.csv</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179"/>
+      <selection activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,12 +4017,12 @@
         <v>138</v>
       </c>
       <c r="I108" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B109" t="s">
         <v>134</v>
@@ -4043,15 +4043,15 @@
         <v>2004</v>
       </c>
       <c r="H109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I109" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B110" t="s">
         <v>134</v>
@@ -4072,15 +4072,15 @@
         <v>2004</v>
       </c>
       <c r="H110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I110" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B111" t="s">
         <v>134</v>
@@ -4101,15 +4101,15 @@
         <v>2004</v>
       </c>
       <c r="H111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I111" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B112" t="s">
         <v>134</v>
@@ -4130,15 +4130,15 @@
         <v>2004</v>
       </c>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s">
         <v>134</v>
@@ -4159,15 +4159,15 @@
         <v>2004</v>
       </c>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B114" t="s">
         <v>134</v>
@@ -4188,15 +4188,15 @@
         <v>2004</v>
       </c>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I114" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B115" t="s">
         <v>134</v>
@@ -4217,15 +4217,15 @@
         <v>2010</v>
       </c>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I115" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B116" t="s">
         <v>134</v>
@@ -4246,15 +4246,15 @@
         <v>2010</v>
       </c>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I116" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B117" t="s">
         <v>134</v>
@@ -4275,15 +4275,15 @@
         <v>2010</v>
       </c>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I117" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s">
         <v>134</v>
@@ -4304,15 +4304,15 @@
         <v>2010</v>
       </c>
       <c r="H118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I118" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B119" t="s">
         <v>134</v>
@@ -4336,12 +4336,12 @@
         <v>138</v>
       </c>
       <c r="I119" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B120" t="s">
         <v>134</v>
@@ -4365,12 +4365,12 @@
         <v>138</v>
       </c>
       <c r="I120" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B121" t="s">
         <v>134</v>
@@ -4394,12 +4394,12 @@
         <v>138</v>
       </c>
       <c r="I121" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B122" t="s">
         <v>134</v>
@@ -4423,12 +4423,12 @@
         <v>138</v>
       </c>
       <c r="I122" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B123" t="s">
         <v>134</v>
@@ -4452,12 +4452,12 @@
         <v>138</v>
       </c>
       <c r="I123" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B124" t="s">
         <v>134</v>
@@ -4481,12 +4481,12 @@
         <v>138</v>
       </c>
       <c r="I124" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B125" t="s">
         <v>134</v>
@@ -4510,12 +4510,12 @@
         <v>138</v>
       </c>
       <c r="I125" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B126" t="s">
         <v>134</v>
@@ -4536,15 +4536,15 @@
         <v>2008</v>
       </c>
       <c r="H126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I126" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B127" t="s">
         <v>134</v>
@@ -4565,15 +4565,15 @@
         <v>2008</v>
       </c>
       <c r="H127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I127" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B128" t="s">
         <v>134</v>
@@ -4594,15 +4594,15 @@
         <v>2008</v>
       </c>
       <c r="H128" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I128" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B129" t="s">
         <v>134</v>
@@ -4623,15 +4623,15 @@
         <v>2008</v>
       </c>
       <c r="H129" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I129" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B130" t="s">
         <v>134</v>
@@ -4652,15 +4652,15 @@
         <v>2008</v>
       </c>
       <c r="H130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I130" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B131" t="s">
         <v>134</v>
@@ -4681,15 +4681,15 @@
         <v>2008</v>
       </c>
       <c r="H131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I131" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B132" t="s">
         <v>134</v>
@@ -4710,15 +4710,15 @@
         <v>2008</v>
       </c>
       <c r="H132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
@@ -4742,12 +4742,12 @@
         <v>138</v>
       </c>
       <c r="I133" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
@@ -4768,15 +4768,15 @@
         <v>2004</v>
       </c>
       <c r="H134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I134" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B135" t="s">
         <v>134</v>
@@ -4800,12 +4800,12 @@
         <v>138</v>
       </c>
       <c r="I135" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B136" t="s">
         <v>134</v>
@@ -4829,12 +4829,12 @@
         <v>138</v>
       </c>
       <c r="I136" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B137" t="s">
         <v>134</v>
@@ -4858,12 +4858,12 @@
         <v>138</v>
       </c>
       <c r="I137" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B138" t="s">
         <v>134</v>
@@ -4887,12 +4887,12 @@
         <v>138</v>
       </c>
       <c r="I138" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B139" t="s">
         <v>134</v>
@@ -4916,12 +4916,12 @@
         <v>138</v>
       </c>
       <c r="I139" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B140" t="s">
         <v>134</v>
@@ -4945,12 +4945,12 @@
         <v>138</v>
       </c>
       <c r="I140" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B141" t="s">
         <v>134</v>
@@ -4974,12 +4974,12 @@
         <v>138</v>
       </c>
       <c r="I141" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B142" t="s">
         <v>134</v>
@@ -5003,12 +5003,12 @@
         <v>138</v>
       </c>
       <c r="I142" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B143" t="s">
         <v>134</v>
@@ -5029,15 +5029,15 @@
         <v>2006</v>
       </c>
       <c r="H143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I143" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B144" t="s">
         <v>134</v>
@@ -5058,15 +5058,15 @@
         <v>2006</v>
       </c>
       <c r="H144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I144" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B145" t="s">
         <v>134</v>
@@ -5087,15 +5087,15 @@
         <v>2006</v>
       </c>
       <c r="H145" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I145" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B146" t="s">
         <v>134</v>
@@ -5116,15 +5116,15 @@
         <v>2006</v>
       </c>
       <c r="H146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I146" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B147" t="s">
         <v>134</v>
@@ -5145,15 +5145,15 @@
         <v>2006</v>
       </c>
       <c r="H147" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I147" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B148" t="s">
         <v>134</v>
@@ -5177,12 +5177,12 @@
         <v>138</v>
       </c>
       <c r="I148" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B149" t="s">
         <v>134</v>
@@ -5206,12 +5206,12 @@
         <v>138</v>
       </c>
       <c r="I149" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B150" t="s">
         <v>134</v>
@@ -5235,12 +5235,12 @@
         <v>138</v>
       </c>
       <c r="I150" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B151" t="s">
         <v>134</v>
@@ -5264,12 +5264,12 @@
         <v>138</v>
       </c>
       <c r="I151" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B152" t="s">
         <v>134</v>
@@ -5293,12 +5293,12 @@
         <v>138</v>
       </c>
       <c r="I152" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B153" t="s">
         <v>134</v>
@@ -5322,12 +5322,12 @@
         <v>138</v>
       </c>
       <c r="I153" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B154" t="s">
         <v>134</v>
@@ -5348,15 +5348,15 @@
         <v>2022</v>
       </c>
       <c r="H154" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I154" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B155" t="s">
         <v>134</v>
@@ -5377,15 +5377,15 @@
         <v>2022</v>
       </c>
       <c r="H155" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I155" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B156" t="s">
         <v>134</v>
@@ -5406,15 +5406,15 @@
         <v>2022</v>
       </c>
       <c r="H156" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I156" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B157" t="s">
         <v>134</v>
@@ -5435,15 +5435,15 @@
         <v>2022</v>
       </c>
       <c r="H157" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I157" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B158" t="s">
         <v>134</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B159" t="s">
         <v>134</v>
@@ -5483,10 +5483,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B160" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C160" t="s">
         <v>11</v>
@@ -5503,10 +5503,10 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B161" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B162" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C162" t="s">
         <v>11</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B163" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C163" t="s">
         <v>11</v>
@@ -5564,18 +5564,18 @@
         <v>2010</v>
       </c>
       <c r="H163" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I163" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B164" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
@@ -5587,24 +5587,24 @@
         <v>5</v>
       </c>
       <c r="F164" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G164">
         <v>2010</v>
       </c>
       <c r="H164" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I164" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B165" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C165" t="s">
         <v>11</v>
@@ -5616,24 +5616,24 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G165">
         <v>2014</v>
       </c>
       <c r="H165" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I165" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B166" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
@@ -5645,24 +5645,24 @@
         <v>3</v>
       </c>
       <c r="F166" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G166">
         <v>2014</v>
       </c>
       <c r="H166" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I166" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B167" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C167" t="s">
         <v>11</v>
@@ -5674,24 +5674,24 @@
         <v>5</v>
       </c>
       <c r="F167" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G167">
         <v>2014</v>
       </c>
       <c r="H167" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I167" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B168" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C168" t="s">
         <v>11</v>
@@ -5703,24 +5703,24 @@
         <v>2</v>
       </c>
       <c r="F168" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G168">
         <v>2012</v>
       </c>
       <c r="H168" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I168" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
@@ -5732,24 +5732,24 @@
         <v>4</v>
       </c>
       <c r="F169" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G169">
         <v>2012</v>
       </c>
       <c r="H169" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I169" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B170" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C170" t="s">
         <v>11</v>
@@ -5761,24 +5761,24 @@
         <v>6</v>
       </c>
       <c r="F170" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G170">
         <v>2012</v>
       </c>
       <c r="H170" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I170" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B171" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C171" t="s">
         <v>11</v>
@@ -5790,24 +5790,24 @@
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G171">
         <v>2018</v>
       </c>
       <c r="H171" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I171" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B172" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C172" t="s">
         <v>11</v>
@@ -5819,24 +5819,24 @@
         <v>3</v>
       </c>
       <c r="F172" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G172">
         <v>2018</v>
       </c>
       <c r="H172" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I172" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B173" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C173" t="s">
         <v>11</v>
@@ -5848,24 +5848,24 @@
         <v>5</v>
       </c>
       <c r="F173" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G173">
         <v>2018</v>
       </c>
       <c r="H173" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I173" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B174" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C174" t="s">
         <v>11</v>
@@ -5877,24 +5877,24 @@
         <v>2</v>
       </c>
       <c r="F174" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G174">
         <v>2016</v>
       </c>
       <c r="H174" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I174" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B175" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C175" t="s">
         <v>11</v>
@@ -5912,18 +5912,18 @@
         <v>2020</v>
       </c>
       <c r="H175" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I175" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B176" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C176" t="s">
         <v>11</v>
@@ -5941,10 +5941,10 @@
         <v>2020</v>
       </c>
       <c r="H176" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I176" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
